--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Hope客户增加Billing notes字段
-2 HOPE客户相关逻辑变更
-3 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 Hope客户批导模板信贷开始结束日期增加格式校验
 2 HOPE6460客户增加扩展维护CUST_TYPE的逻辑
 3 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发 
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发
+2 数据库迁移-海外客户测试，SPI功能测试
+3 CSMDM系统首页公告下架。
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Hope客户批导模板信贷开始结束日期增加格式校验
-2 HOPE6460客户增加扩展维护CUST_TYPE的逻辑
-3 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发 
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发
 2 数据库迁移-海外客户测试，SPI功能测试
 3 CSMDM系统首页公告下架。
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发
+2 SPIMDM 售后批导结果页面增加根据批次提交按钮
+3 HopeMDM 补录客户功能新增市场小微数据
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -86,15 +86,15 @@
   </si>
   <si>
     <t xml:space="preserve">1 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发
-2 数据库迁移-海外客户测试，SPI功能测试
-3 CSMDM系统首页公告下架。
+2 SPIMDM 售后批导结果页面增加根据批次提交按钮
+3 HopeMDM 补录客户功能新增市场小微数据
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发
-2 SPIMDM 售后批导结果页面增加根据批次提交按钮
-3 HopeMDM 补录客户功能新增市场小微数据
+2 HopeMDM 6710公司克隆到6770公司
+3 SpiMDM  数据库迁移测试
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -86,14 +86,14 @@
   </si>
   <si>
     <t xml:space="preserve">1 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发
-2 SPIMDM 售后批导结果页面增加根据批次提交按钮
-3 HopeMDM 补录客户功能新增市场小微数据
+2 HopeMDM 6710公司克隆到6770公司
+3 SpiMDM  数据库迁移测试
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发
-2 HopeMDM 6710公司克隆到6770公司
+    <t xml:space="preserve">1 com.neusoft.mdm.Employee.EmployeeAction.searchNewItemEmployee平均响应时间不达标处理
+2 调整菲律宾65G0贸易公司Z001逻辑
 3 SpiMDM  数据库迁移测试
 </t>
     <phoneticPr fontId="24" type="noConversion"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,15 +85,15 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 HopeMDM 新加坡贸易公司OBD和OEM整合方案开发
-2 HopeMDM 6710公司克隆到6770公司
+    <t xml:space="preserve">1 com.neusoft.mdm.Employee.EmployeeAction.searchNewItemEmployee平均响应时间不达标处理
+2 调整菲律宾65G0贸易公司Z001逻辑
 3 SpiMDM  数据库迁移测试
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1 com.neusoft.mdm.Employee.EmployeeAction.searchNewItemEmployee平均响应时间不达标处理
-2 调整菲律宾65G0贸易公司Z001逻辑
+    <t xml:space="preserve">1 SPIMDM OEM工厂权限自动扩充
+2 Hope客户模板自动刷新
 3 SpiMDM  数据库迁移测试
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -1285,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 com.neusoft.mdm.Employee.EmployeeAction.searchNewItemEmployee平均响应时间不达标处理
-2 调整菲律宾65G0贸易公司Z001逻辑
+    <t xml:space="preserve">1 SPIMDM OEM工厂权限自动扩充
+2 Hope客户模板自动刷新
 3 SpiMDM  数据库迁移测试
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1 SPIMDM OEM工厂权限自动扩充
+    <t xml:space="preserve">1 6710公司权限调整
 2 Hope客户模板自动刷新
-3 SpiMDM  数据库迁移测试
+3 HOPE  数据库迁移测试
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 SPIMDM OEM工厂权限自动扩充
-2 Hope客户模板自动刷新
-3 SpiMDM  数据库迁移测试
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 6710公司权限调整
 2 Hope客户模板自动刷新
 3 HOPE  数据库迁移测试
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 HopeMDM物料权限变更，指定贸易公司增加产品大类分片
+2 Hope客户更新导入功能优化
+3 MDM生产数据库迁移
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1285,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1400,7 +1400,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1410,7 +1410,7 @@
   <dimension ref="B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 6710公司权限调整
-2 Hope客户模板自动刷新
-3 HOPE  数据库迁移测试
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 HopeMDM物料权限变更，指定贸易公司增加产品大类分片
 2 Hope客户更新导入功能优化
 3 MDM生产数据库迁移
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 HaierMDM银行通用接口
+2 Haier质量库图标展示调整
+3 HopeMDM物料权限变更，指定贸易公司增加产品大类分片
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 HopeMDM物料权限变更，指定贸易公司增加产品大类分片
-2 Hope客户更新导入功能优化
-3 MDM生产数据库迁移
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 HaierMDM银行通用接口
 2 Haier质量库图标展示调整
 3 HopeMDM物料权限变更，指定贸易公司增加产品大类分片
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 HaierMDM供应商基本信息通用接口
+2 HopeMDM银行通用接口
+3 海外客户管理客户（市场小微）属性修改功能开发
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 HaierMDM银行通用接口
-2 Haier质量库图标展示调整
-3 HopeMDM物料权限变更，指定贸易公司增加产品大类分片
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 HaierMDM供应商基本信息通用接口
 2 HopeMDM银行通用接口
 3 海外客户管理客户（市场小微）属性修改功能开发
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 HaierMDM供应商CompanyList字段调整
+2 HaierMDM供应商基本信息通用接口
+3 HopeMDM增加人员角色分片维度及相关角色分片调整
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,15 +85,15 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 HaierMDM供应商基本信息通用接口
-2 HopeMDM银行通用接口
-3 海外客户管理客户（市场小微）属性修改功能开发
+    <t xml:space="preserve">1 HaierMDM供应商CompanyList字段调整
+2 HaierMDM供应商基本信息通用接口
+3 HopeMDM增加人员角色分片维度及相关角色分片调整
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1 HaierMDM供应商CompanyList字段调整
-2 HaierMDM供应商基本信息通用接口
+    <t xml:space="preserve">1 HaierMDM供应商逻辑调整
+2 HopeMDM物料/客户模板刷新功能优化
 3 HopeMDM增加人员角色分片维度及相关角色分片调整
 </t>
     <phoneticPr fontId="24" type="noConversion"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>PSI-2013年8月度经营体推进及重点工作计划表</t>
   </si>
@@ -85,8 +85,8 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 HaierMDM供应商CompanyList字段调整
-2 HaierMDM供应商基本信息通用接口
+    <t xml:space="preserve">1 HaierMDM供应商逻辑调整
+2 HopeMDM物料/客户模板刷新功能优化
 3 HopeMDM增加人员角色分片维度及相关角色分片调整
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -95,6 +95,13 @@
     <t xml:space="preserve">1 HaierMDM供应商逻辑调整
 2 HopeMDM物料/客户模板刷新功能优化
 3 HopeMDM增加人员角色分片维度及相关角色分片调整
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 堡垒机环境变更，开发环境搭建
+2 HaierMDM批量导入功能效率优化
+3 HaierMDM供应商逻辑调整
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1286,7 +1293,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1377,11 +1384,11 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>PSI-2013年8月度经营体推进及重点工作计划表</t>
   </si>
@@ -85,23 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 HaierMDM供应商逻辑调整
-2 HopeMDM物料/客户模板刷新功能优化
-3 HopeMDM增加人员角色分片维度及相关角色分片调整
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 HaierMDM供应商逻辑调整
-2 HopeMDM物料/客户模板刷新功能优化
-3 HopeMDM增加人员角色分片维度及相关角色分片调整
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 堡垒机环境变更，开发环境搭建
 2 HaierMDM批量导入功能效率优化
 3 HaierMDM供应商逻辑调整
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Hope6260客户增加手机字段
+2 HaierMDM印度供应商增加集团内外选项
+3 堡垒机环境变更，开发环境搭建
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1384,11 +1377,11 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 堡垒机环境变更，开发环境搭建
-2 HaierMDM批量导入功能效率优化
-3 HaierMDM供应商逻辑调整
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 Hope6260客户增加手机字段
 2 HaierMDM印度供应商增加集团内外选项
 3 堡垒机环境变更，开发环境搭建
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 为1169小微系统提供供应商写入服务创建个人供应商数据
+2 Haiermdm印度供应商维护公司视图增加税视图字段
+3 新框架整理与测试
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Hope6260客户增加手机字段
-2 HaierMDM印度供应商增加集团内外选项
-3 堡垒机环境变更，开发环境搭建
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 为1169小微系统提供供应商写入服务创建个人供应商数据
 2 Haiermdm印度供应商维护公司视图增加税视图字段
 3 新框架整理与测试
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Haiermdm印度供应商维护增加1100、1200、1400修改和扩充权限。
+2 HopeMDM本部公司客户申请上增加附件上传功能和提交前判断功能
+3 客户数据质量分析功能优化
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 为1169小微系统提供供应商写入服务创建个人供应商数据
-2 Haiermdm印度供应商维护公司视图增加税视图字段
-3 新框架整理与测试
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 Haiermdm印度供应商维护增加1100、1200、1400修改和扩充权限。
 2 HopeMDM本部公司客户申请上增加附件上传功能和提交前判断功能
 3 客户数据质量分析功能优化
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 HopeMDM本部公司客户申请上增加附件上传功能和提交前判断功能
+2 开通海外客户实时查询服务
+3 EPGMDM框架迁移新功能开发与分析
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Haiermdm印度供应商维护增加1100、1200、1400修改和扩充权限。
-2 HopeMDM本部公司客户申请上增加附件上传功能和提交前判断功能
-3 客户数据质量分析功能优化
+    <t xml:space="preserve">1 新电产贸易公司客户主数据上线切换
+2 欧洲Siebel与HopeMDM客户主数据接口需求
+3 EPGMDM框架迁移新功能开发与分析
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1 HopeMDM本部公司客户申请上增加附件上传功能和提交前判断功能
-2 开通海外客户实时查询服务
-3 EPGMDM框架迁移新功能开发与分析
+    <t xml:space="preserve">1 固话采购组织与出票方对照关系，并调整历史数据
+2 EPGMDM新框架客户主数据功能开发
+3 EPGMDM新框架基本功能搭建
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1 新电产贸易公司客户主数据上线切换
-2 欧洲Siebel与HopeMDM客户主数据接口需求
-3 EPGMDM框架迁移新功能开发与分析
+    <t xml:space="preserve">1  HaierMDM供应商冻结通用接口开发。
+2  HopeMDM 美国3IN1项目统一需求---客户主数据
+3 EPGMDM导出功能开发
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1 固话采购组织与出票方对照关系，并调整历史数据
-2 EPGMDM新框架客户主数据功能开发
-3 EPGMDM新框架基本功能搭建
+    <t xml:space="preserve">1  HaierMDM相关值信息通用接口开发。
+2  HopeMDM 美国3IN1项目统一需求---客户主数据
+3  EPGMDM项目测试反馈与优化
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,16 +85,17 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1  HaierMDM供应商冻结通用接口开发。
-2  HopeMDM 美国3IN1项目统一需求---客户主数据
-3 EPGMDM导出功能开发
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1  HaierMDM相关值信息通用接口开发。
 2  HopeMDM 美国3IN1项目统一需求---客户主数据
 3  EPGMDM项目测试反馈与优化
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1  HaierMDM相关RSP值信息通用接口开发。
+2  HaierMDM供应商引入接口切换
+3  HaierMDM欧洲siebel海外客户信息接口开发
+4  HaierMDM供应商1600操作附件明细化修改
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -1286,7 +1287,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -85,16 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1  HaierMDM相关值信息通用接口开发。
-2  HopeMDM 美国3IN1项目统一需求---客户主数据
-3  EPGMDM项目测试反馈与优化
-</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1  HaierMDM相关RSP值信息通用接口开发。
 2  HaierMDM供应商引入接口切换
 3  HaierMDM欧洲siebel海外客户信息接口开发
+4  HaierMDM供应商1600操作附件明细化修改
+</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1  EpgMDM相关功能维护。
+2  HaierMDM盛丰0350公司上线数据初始化
 4  HaierMDM供应商1600操作附件明细化修改
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,17 +85,16 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1  HaierMDM相关RSP值信息通用接口开发。
-2  HaierMDM供应商引入接口切换
-3  HaierMDM欧洲siebel海外客户信息接口开发
+    <t xml:space="preserve">1  EpgMDM相关功能维护。
+2  HaierMDM盛丰0350公司上线数据初始化
 4  HaierMDM供应商1600操作附件明细化修改
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1  EpgMDM相关功能维护。
-2  HaierMDM盛丰0350公司上线数据初始化
-4  HaierMDM供应商1600操作附件明细化修改
+    <t xml:space="preserve">1  印度贸易公司供应商银行信息初始化
+2  HaierMDM增加第三方支付平台账号视图
+4  HaierMDMHaierMDM盛丰0350公司上线数据初始化
 </t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -85,17 +85,57 @@
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
   </si>
   <si>
-    <t xml:space="preserve">1  EpgMDM相关功能维护。
-2  HaierMDM盛丰0350公司上线数据初始化
-4  HaierMDM供应商1600操作附件明细化修改
+    <r>
+      <t xml:space="preserve">1  LesMDM优化改造--客户、社会化客户功能
+2  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EVS系统 个人借款的供应商扩充以及提交接口开发
+3  供应商、客户主数据增加第三方支付平台账号视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1  印度贸易公司供应商银行信息初始化
-2  HaierMDM增加第三方支付平台账号视图
-4  HaierMDMHaierMDM盛丰0350公司上线数据初始化
+    <r>
+      <t xml:space="preserve">1  LesMDM优化改造--客户、社会化客户功能
+2  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EVS系统 个人借款的供应商扩充以及提交接口开发
+3  HaierMDM 开通接口并导出供应商数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -1285,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -83,33 +83,6 @@
   </si>
   <si>
     <t>jdbc:oracle:thin:@(DESCRIPTION=(LOAD_BALANCE=yes)(ADDRESS=(PROTOCOL=tcp)(HOST=10.138.1.77)(PORT=1521))(ADDRESS=(PROTOCOL=TCP)(HOST=10.138.1.78)(PORT=1521))(CONNECT_DATA=(SERVICE_NAME=haiermdm)(failover_mode=(type=select)(method=basic)))))</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1  LesMDM优化改造--客户、社会化客户功能
-2  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EVS系统 个人借款的供应商扩充以及提交接口开发
-3  供应商、客户主数据增加第三方支付平台账号视图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -125,6 +98,33 @@
       </rPr>
       <t>EVS系统 个人借款的供应商扩充以及提交接口开发
 3  HaierMDM 开通接口并导出供应商数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1  LesMDM优化改造--客户、社会化客户功能
+2  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HopeMDM 6500 0211账户组增加市场小微属性维护功能
+3  HaierMDM 供应商相关功能速度报警优化</t>
     </r>
     <r>
       <rPr>
@@ -1326,7 +1326,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/周报/周报刘志龙(5).xlsx
+++ b/周报/周报刘志龙(5).xlsx
@@ -96,8 +96,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>EVS系统 个人借款的供应商扩充以及提交接口开发
-3  HaierMDM 开通接口并导出供应商数据</t>
+      <t>HopeMDM 6500 0211账户组增加市场小微属性维护功能
+3  HaierMDM 供应商相关功能速度报警优化</t>
     </r>
     <r>
       <rPr>
@@ -113,8 +113,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1  LesMDM优化改造--客户、社会化客户功能
-2  </t>
+      <t>1  LesMDM系统优化上线
+2  HopeMDM 6560客户更新和6300 6340 6350扩展必填项设置</t>
     </r>
     <r>
       <rPr>
@@ -123,8 +123,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>HopeMDM 6500 0211账户组增加市场小微属性维护功能
-3  HaierMDM 供应商相关功能速度报警优化</t>
+      <t xml:space="preserve">
+3  HopeMDM 6500 0211账户组增加市场小微属性维护功能</t>
     </r>
     <r>
       <rPr>
